--- a/story/Story Summarization 剧情简述/Main Story and Others 主线剧情等/Operator Record 干员密录/story_tiger_1_1.xlsx
+++ b/story/Story Summarization 剧情简述/Main Story and Others 主线剧情等/Operator Record 干员密录/story_tiger_1_1.xlsx
@@ -31,7 +31,7 @@
     <t>为了王，也为了在船上和在家乡的伙伴，因陀罗努力学习着什么时候该挥拳，什么时候该松手。</t>
   </si>
   <si>
-    <t xml:space="preserve">为了王，也为了在船上和在家乡的伙伴，因陀罗努力学习着什么时候该挥拳，什么时候该松手。
+    <t xml:space="preserve">王のため、そしてロドスや故郷の仲間のため、インドラはいつ拳を振るい、いつ力を抜くべきかを懸命に覚えている最中だ。
 </t>
   </si>
   <si>
